--- a/01_background/Analysis_Specifications_20220913.xlsx
+++ b/01_background/Analysis_Specifications_20220913.xlsx
@@ -1,21 +1,22 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="20391"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="25726"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="S:\FHPC\DATA\HCPF_Data_files_SECURE\Kim\isp\isp_utilization\01 background\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="S:\FHPC\DATA\HCPF_Data_files_SECURE\Kim\isp\isp_utilization\01_background\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{93D0DD31-F4AD-4E36-9E07-40F16341CA8A}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DEAC79B1-2A42-4D91-9A2E-0D785E4A42DD}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="17256" windowHeight="5124" xr2:uid="{A163DE94-6307-4150-BFFB-6B4CE85967AB}"/>
+    <workbookView xWindow="22932" yWindow="-108" windowWidth="23256" windowHeight="12720" activeTab="1" xr2:uid="{A163DE94-6307-4150-BFFB-6B4CE85967AB}"/>
   </bookViews>
   <sheets>
     <sheet name="Data Specs" sheetId="2" r:id="rId1"/>
     <sheet name="Measures" sheetId="1" r:id="rId2"/>
     <sheet name="kw_notes_qs" sheetId="3" r:id="rId3"/>
+    <sheet name="datasets_workflow" sheetId="4" r:id="rId4"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -28,8 +29,8 @@
         <xcalcf:feature name="microsoft.com:Single"/>
         <xcalcf:feature name="microsoft.com:FV"/>
         <xcalcf:feature name="microsoft.com:CNMTM"/>
+        <xcalcf:feature name="microsoft.com:LET_WF"/>
         <xcalcf:feature name="microsoft.com:LAMBDA_WF"/>
-        <xcalcf:feature name="microsoft.com:LET_WF"/>
       </xcalcf:calcFeatures>
     </ext>
   </extLst>
@@ -37,7 +38,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="149" uniqueCount="116">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="153" uniqueCount="120">
   <si>
     <t>HCPF data measures</t>
   </si>
@@ -518,6 +519,18 @@
   </si>
   <si>
     <t>Updated from 'in a month' to 'in a quarter' (green)</t>
+  </si>
+  <si>
+    <t>Task</t>
+  </si>
+  <si>
+    <t>Filename</t>
+  </si>
+  <si>
+    <t>getClai</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Get Members: 0-64 in </t>
   </si>
 </sst>
 </file>
@@ -922,8 +935,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{10C548FC-D9C9-4889-90CA-494B21B536C4}">
   <dimension ref="A1:C26"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A3" workbookViewId="0">
-      <selection activeCell="B19" sqref="B19"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="B9" sqref="B9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.2" x14ac:dyDescent="0.25"/>
@@ -1086,8 +1099,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{DC3A2D1E-A317-4F30-B849-FF99E3DED383}">
   <dimension ref="A1:E48"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="B48" sqref="B48"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="B9" sqref="B9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -1435,7 +1448,7 @@
   <dimension ref="A1:G26"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B9" sqref="B9"/>
+      <selection activeCell="D15" sqref="D15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -1728,4 +1741,40 @@
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" horizontalDpi="1200" verticalDpi="1200" r:id="rId1"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B80A3DAE-B3E3-4AFF-997C-8CB8F0AFEF83}">
+  <dimension ref="A1:B3"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A2" sqref="A2"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <cols>
+    <col min="1" max="1" width="19.33203125" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A1" t="s">
+        <v>116</v>
+      </c>
+      <c r="B1" t="s">
+        <v>117</v>
+      </c>
+    </row>
+    <row r="2" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A2" t="s">
+        <v>119</v>
+      </c>
+    </row>
+    <row r="3" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A3" t="s">
+        <v>118</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
 </file>